--- a/xlsx/公共房屋_intext.xlsx
+++ b/xlsx/公共房屋_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>公共房屋</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E8%8F%AF%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>大中華地區</t>
+    <t>大中华地区</t>
   </si>
   <si>
     <t>政策_政策_社会政策_公共房屋</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%88%BE%E5%B2%A1</t>
   </si>
   <si>
-    <t>古爾岡</t>
+    <t>古尔冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%B1%8B</t>
   </si>
   <si>
-    <t>組屋</t>
+    <t>组屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%9F%8E%E7%89%B9%E7%B4%9A%E5%B8%82</t>
   </si>
   <si>
-    <t>開城特級市</t>
+    <t>开城特级市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%A7%9F</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%9C%BE</t>
   </si>
   <si>
-    <t>民眾</t>
+    <t>民众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%A4%BE%E6%9C%83%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>澳門社會房屋</t>
+    <t>澳门社会房屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E5%AE%9C%E4%BD%8F%E5%AE%85</t>
@@ -173,19 +173,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E5%B1%8B</t>
   </si>
   <si>
-    <t>组屋</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%81%A9%E7%94%A8%E6%88%BF</t>
   </si>
   <si>
-    <t>經濟適用房</t>
+    <t>经济适用房</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E7%A7%9F%E6%88%BF</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%88%BF%E5%B1%8B%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港房屋協會</t>
+    <t>香港房屋协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%9D%8E%E5%B1%8B%E6%9D%91</t>
@@ -209,25 +206,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%A1%A4%E5%B0%BE%E5%A4%A7%E7%81%AB</t>
   </si>
   <si>
-    <t>石硤尾大火</t>
+    <t>石硖尾大火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B1%8B%E5%AE%87%E5%BB%BA%E8%A8%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>香港屋宇建設委員會</t>
+    <t>香港屋宇建设委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%8B%99%E5%8F%B8%E7%BD%B2</t>
   </si>
   <si>
-    <t>工務司署</t>
+    <t>工务司署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%88%BF%E5%B1%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>香港房屋委員會</t>
+    <t>香港房屋委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E8%80%85%E6%9C%89%E5%85%B6%E5%B1%8B</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%B1%B1_(%E6%BE%B3%E9%96%80)</t>
   </si>
   <si>
-    <t>台山 (澳門)</t>
+    <t>台山 (澳门)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>澳門政府</t>
+    <t>澳门政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%B1%8B%E5%B1%80</t>
@@ -257,37 +254,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E7%92%B0</t>
   </si>
   <si>
-    <t>路環</t>
+    <t>路环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%8E%92%E7%81%A3%E7%A4%BE%E5%B1%8B%E6%A8%82%E7%BE%A4%E6%A8%93</t>
   </si>
   <si>
-    <t>石排灣社屋樂群樓</t>
+    <t>石排湾社屋乐群楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%BD%8F%E5%AE%85</t>
   </si>
   <si>
-    <t>國民住宅</t>
+    <t>国民住宅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%B7%E6%9D%91</t>
@@ -305,25 +299,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%92%E4%BD%9C%E6%88%BF%E5%9C%B0%E7%94%A2</t>
   </si>
   <si>
-    <t>炒作房地產</t>
+    <t>炒作房地产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%BE%A6%E6%B0%91%E7%87%9F</t>
   </si>
   <si>
-    <t>公辦民營</t>
+    <t>公办民营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BD%8F%E5%AE%85</t>
   </si>
   <si>
-    <t>社會住宅</t>
+    <t>社会住宅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%95%86%E5%8B%BE%E7%B5%90</t>
   </si>
   <si>
-    <t>官商勾結</t>
+    <t>官商勾结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -353,13 +347,13 @@
     <t>https://ja.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%86%8D%E7%94%9F%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>ja-都市再生機構</t>
+    <t>ja-都市再生机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%87%9F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>國營企業</t>
+    <t>国营企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E8%88%8D</t>
@@ -371,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>團地</t>
+    <t>团地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%85%AC%E8%90%A5%E4%BD%8F%E5%AE%85</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>都市計畫</t>
+    <t>都市计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>公寓大廈</t>
+    <t>公寓大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%A2%85</t>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E5%B1%8B</t>
   </si>
   <si>
-    <t>樹屋</t>
+    <t>树屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%AE%85</t>
@@ -521,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%B1%8B</t>
   </si>
   <si>
-    <t>組合屋</t>
+    <t>组合屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83%E5%B1%8B</t>
   </si>
   <si>
-    <t>貨櫃屋</t>
+    <t>货柜屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%88%BF</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%AF%E5%BB%B3</t>
   </si>
   <si>
-    <t>飯廳</t>
+    <t>饭厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ell_(architecture)</t>
@@ -599,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>居家就業</t>
+    <t>居家就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9A%E6%88%BF</t>
   </si>
   <si>
-    <t>廚房</t>
+    <t>厨房</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kitchenette</t>
@@ -623,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%BB%B3</t>
   </si>
   <si>
-    <t>客廳</t>
+    <t>客厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>家庭劇院</t>
+    <t>家庭剧院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Man_cave</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E6%88%BF</t>
   </si>
   <si>
-    <t>書房</t>
+    <t>书房</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sunroom</t>
@@ -665,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E8%87%BA</t>
   </si>
   <si>
-    <t>露臺</t>
+    <t>露台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%B7%E5%BB%8A_(%E9%81%8A%E5%BB%8A)</t>
   </si>
   <si>
-    <t>簷廊 (遊廊)</t>
+    <t>簷廊 (游廊)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Terrace_(building)</t>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E9%99%8D%E6%A9%9F</t>
   </si>
   <si>
-    <t>升降機</t>
+    <t>升降机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Foyer</t>
@@ -731,19 +725,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BB%B3</t>
   </si>
   <si>
-    <t>大廳</t>
+    <t>大厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A3%E6%A8%93</t>
   </si>
   <si>
-    <t>閣樓</t>
+    <t>阁楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%BC%E5%BB%8A</t>
   </si>
   <si>
-    <t>涼廊</t>
+    <t>凉廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BA%AD</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%93%E6%A2%AF</t>
   </si>
   <si>
-    <t>樓梯</t>
+    <t>楼梯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vestibule_(architecture)</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E9%96%93</t>
   </si>
   <si>
-    <t>房間</t>
+    <t>房间</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carport</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E5%B8%BD%E9%96%93</t>
   </si>
   <si>
-    <t>衣帽間</t>
+    <t>衣帽间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%B1%E6%9F%9C</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E6%AB%83</t>
   </si>
   <si>
-    <t>衣櫃</t>
+    <t>衣柜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E9%9B%BB%E7%9B%A4</t>
   </si>
   <si>
-    <t>配電盤</t>
+    <t>配电盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Demarcation_point</t>
@@ -947,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A5%E5%AE%A4</t>
   </si>
   <si>
-    <t>臥室</t>
+    <t>卧室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guest_room</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%81%E6%89%80</t>
   </si>
   <si>
-    <t>廁所</t>
+    <t>厕所</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ballroom</t>
@@ -1013,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4</t>
   </si>
   <si>
-    <t>溫室</t>
+    <t>温室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Great_chamber</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E7%89%A9</t>
   </si>
   <si>
-    <t>建築物</t>
+    <t>建筑物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%85%B7</t>
@@ -1151,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%84%E6%9D%86</t>
   </si>
   <si>
-    <t>欄杆</t>
+    <t>栏杆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8A%B1%E6%9D%BF</t>
@@ -1181,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80_(%E5%BB%BA%E7%AF%89%E7%89%A9)</t>
   </si>
   <si>
-    <t>門 (建築物)</t>
+    <t>门 (建筑物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E6%98%8E</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%A0%82</t>
   </si>
   <si>
-    <t>拱頂</t>
+    <t>拱顶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8B%E9%A1%B6</t>
@@ -2351,7 +2345,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2377,10 +2371,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2406,10 +2400,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2464,10 +2458,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2493,10 +2487,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2522,10 +2516,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2551,10 +2545,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2580,10 +2574,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2609,10 +2603,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2638,10 +2632,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2696,10 +2690,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2725,10 +2719,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2754,10 +2748,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2783,10 +2777,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2812,10 +2806,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2841,10 +2835,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2870,10 +2864,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -2899,10 +2893,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2928,10 +2922,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2957,10 +2951,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2986,10 +2980,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3015,10 +3009,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3044,10 +3038,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3073,10 +3067,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3102,10 +3096,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3131,10 +3125,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>7</v>
@@ -3160,10 +3154,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3189,10 +3183,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3218,10 +3212,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3247,10 +3241,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3276,10 +3270,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3305,10 +3299,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3334,10 +3328,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3363,10 +3357,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3392,10 +3386,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3421,10 +3415,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3450,10 +3444,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3479,10 +3473,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3508,10 +3502,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3537,10 +3531,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3566,10 +3560,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3595,10 +3589,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3624,10 +3618,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3653,10 +3647,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3682,10 +3676,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3740,10 +3734,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3769,10 +3763,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3798,10 +3792,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3827,10 +3821,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3856,10 +3850,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3885,10 +3879,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3914,10 +3908,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3943,10 +3937,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3972,10 +3966,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4001,10 +3995,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4030,10 +4024,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4059,10 +4053,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4088,10 +4082,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4117,10 +4111,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4146,10 +4140,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4175,10 +4169,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4204,10 +4198,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4233,10 +4227,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4262,10 +4256,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4291,10 +4285,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4320,10 +4314,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4349,10 +4343,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4378,10 +4372,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4407,10 +4401,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4436,10 +4430,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4465,10 +4459,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4494,10 +4488,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4523,10 +4517,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4552,10 +4546,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4581,10 +4575,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4610,10 +4604,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4639,10 +4633,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4668,10 +4662,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4697,10 +4691,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4726,10 +4720,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4755,10 +4749,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4784,10 +4778,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4813,10 +4807,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4842,10 +4836,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4871,10 +4865,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4900,10 +4894,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4929,10 +4923,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4958,10 +4952,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4987,10 +4981,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -5016,10 +5010,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5045,10 +5039,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5074,10 +5068,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5103,10 +5097,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5132,10 +5126,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5161,10 +5155,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5190,10 +5184,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5219,10 +5213,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5248,10 +5242,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5277,10 +5271,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5306,10 +5300,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5335,10 +5329,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5364,10 +5358,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5393,10 +5387,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5422,10 +5416,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5451,10 +5445,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5480,10 +5474,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5509,10 +5503,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5538,10 +5532,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5567,10 +5561,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5596,10 +5590,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5625,10 +5619,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5654,10 +5648,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5683,10 +5677,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5712,10 +5706,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5741,10 +5735,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5770,10 +5764,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5799,10 +5793,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5828,10 +5822,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5857,10 +5851,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5886,10 +5880,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5915,10 +5909,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5944,10 +5938,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5973,10 +5967,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6002,10 +5996,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6031,10 +6025,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6060,10 +6054,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6089,10 +6083,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6118,10 +6112,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6147,10 +6141,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6176,10 +6170,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6205,10 +6199,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6234,10 +6228,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6263,10 +6257,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6292,10 +6286,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6321,10 +6315,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6350,10 +6344,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6379,10 +6373,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6408,10 +6402,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6437,10 +6431,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6466,10 +6460,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6495,10 +6489,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6524,10 +6518,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6553,10 +6547,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6582,10 +6576,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6611,10 +6605,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6640,10 +6634,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6669,10 +6663,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6698,10 +6692,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6727,10 +6721,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6756,10 +6750,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6785,10 +6779,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6814,10 +6808,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6843,10 +6837,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6872,10 +6866,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6901,10 +6895,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6930,10 +6924,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -6959,10 +6953,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6988,10 +6982,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7017,10 +7011,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7046,10 +7040,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7075,10 +7069,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7104,10 +7098,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7133,10 +7127,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7162,10 +7156,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7191,10 +7185,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7220,10 +7214,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7249,10 +7243,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7278,10 +7272,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7307,10 +7301,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7336,10 +7330,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7365,10 +7359,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7394,10 +7388,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7423,10 +7417,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7452,10 +7446,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7481,10 +7475,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>15</v>
@@ -7510,10 +7504,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>399</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
